--- a/Model data/Model_data_1996.xlsx
+++ b/Model data/Model_data_1996.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/lp82ps_id_aau_dk/Documents/Skrivebord/PhD Aalborg/SFCIO-workingpaper-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BA5CF776C3574AFC124848092A15F5432F53551B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE7A0E0-4DCB-425D-9CF6-40E431DB6CAC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BA5CF776C3574AFC124848ADF216D4672F53551B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF419A0-E7E4-42D3-A053-0D32B3551BDC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A1:EM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
